--- a/definitions/employe.xlsx
+++ b/definitions/employe.xlsx
@@ -1,17 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlovargas/Desktop/synthetic_data/definitions/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF50C319-45A1-F244-90DF-DC77D06E39B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="4180" yWindow="2460" windowWidth="27900" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$82</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="91">
   <si>
     <t>TABLE_NAME</t>
   </si>
@@ -275,26 +287,46 @@
   </si>
   <si>
     <t xml:space="preserve">5     </t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Custom function that generates a fake Person Number.</t>
+  </si>
+  <si>
+    <t>Custom function that simulates a foreign key relationship, referencing PERSON_NUMBER values from the S_EMPLOYEE table.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -303,39 +335,45 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -525,20 +563,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="131" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="6" max="6" width="102.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -554,8 +601,11 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2">
+      <c r="F1" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -568,8 +618,11 @@
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3">
+      <c r="F2" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -582,8 +635,11 @@
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4">
+      <c r="F3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -597,7 +653,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -611,7 +667,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -625,7 +681,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -639,7 +695,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -653,7 +709,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -667,7 +723,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -681,7 +737,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -695,7 +751,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -709,7 +765,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
@@ -723,7 +779,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -737,7 +793,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -751,7 +807,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -765,7 +821,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -779,7 +835,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -793,7 +849,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -807,7 +863,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
@@ -821,7 +877,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
@@ -835,7 +891,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>17</v>
       </c>
@@ -849,7 +905,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
@@ -863,7 +919,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>31</v>
       </c>
@@ -877,7 +933,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
@@ -891,7 +947,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
@@ -905,7 +961,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>31</v>
       </c>
@@ -919,7 +975,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
@@ -933,7 +989,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
@@ -947,7 +1003,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>31</v>
       </c>
@@ -961,7 +1017,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
@@ -975,7 +1031,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -989,7 +1045,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>41</v>
       </c>
@@ -1003,7 +1059,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>41</v>
       </c>
@@ -1017,7 +1073,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>41</v>
       </c>
@@ -1031,7 +1087,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
@@ -1045,7 +1101,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>41</v>
       </c>
@@ -1059,7 +1115,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>41</v>
       </c>
@@ -1073,7 +1129,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>41</v>
       </c>
@@ -1087,7 +1143,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>41</v>
       </c>
@@ -1101,7 +1157,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>41</v>
       </c>
@@ -1115,7 +1171,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
@@ -1129,7 +1185,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
@@ -1143,7 +1199,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>41</v>
       </c>
@@ -1157,7 +1213,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>41</v>
       </c>
@@ -1171,7 +1227,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>41</v>
       </c>
@@ -1185,7 +1241,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>41</v>
       </c>
@@ -1199,7 +1255,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1213,7 +1269,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
         <v>41</v>
       </c>
@@ -1227,7 +1283,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
         <v>41</v>
       </c>
@@ -1241,7 +1297,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:4" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>41</v>
       </c>
@@ -1255,7 +1311,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:4" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
         <v>41</v>
       </c>
@@ -1269,7 +1325,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:4" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
         <v>41</v>
       </c>
@@ -1283,7 +1339,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:4" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
         <v>41</v>
       </c>
@@ -1297,7 +1353,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:4" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
         <v>41</v>
       </c>
@@ -1311,7 +1367,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:4" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
         <v>41</v>
       </c>
@@ -1325,7 +1381,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:4" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
         <v>41</v>
       </c>
@@ -1339,7 +1395,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:4" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
         <v>41</v>
       </c>
@@ -1353,7 +1409,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:4" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
         <v>41</v>
       </c>
@@ -1367,7 +1423,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:4" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
         <v>41</v>
       </c>
@@ -1381,7 +1437,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:4" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
         <v>41</v>
       </c>
@@ -1395,7 +1451,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:4" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
         <v>41</v>
       </c>
@@ -1409,7 +1465,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:4" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
         <v>41</v>
       </c>
@@ -1423,7 +1479,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:4" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
         <v>73</v>
       </c>
@@ -1437,7 +1493,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:4" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
         <v>73</v>
       </c>
@@ -1451,7 +1507,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:4" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
         <v>73</v>
       </c>
@@ -1465,7 +1521,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:4" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
         <v>73</v>
       </c>
@@ -1479,7 +1535,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:4" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
         <v>73</v>
       </c>
@@ -1493,7 +1549,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:4" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
         <v>75</v>
       </c>
@@ -1507,7 +1563,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:4" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
         <v>75</v>
       </c>
@@ -1521,7 +1577,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:4" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
         <v>75</v>
       </c>
@@ -1535,7 +1591,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:4" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
         <v>75</v>
       </c>
@@ -1549,7 +1605,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:4" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
         <v>77</v>
       </c>
@@ -1563,7 +1619,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:4" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
         <v>77</v>
       </c>
@@ -1577,7 +1633,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:4" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
         <v>77</v>
       </c>
@@ -1591,7 +1647,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:4" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
         <v>77</v>
       </c>
@@ -1605,7 +1661,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:4" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
         <v>77</v>
       </c>
@@ -1619,7 +1675,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:4" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
         <v>77</v>
       </c>
@@ -1633,7 +1689,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:4" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
         <v>77</v>
       </c>
@@ -1647,7 +1703,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:4" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
         <v>77</v>
       </c>
@@ -1661,7 +1717,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:4" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
         <v>77</v>
       </c>
@@ -1675,7 +1731,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:4" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
         <v>77</v>
       </c>
@@ -1690,6 +1746,13 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <autoFilter ref="A1:F82" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="S_PA0000"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/definitions/employe.xlsx
+++ b/definitions/employe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlovargas/Desktop/synthetic_data/definitions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF50C319-45A1-F244-90DF-DC77D06E39B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62FA76BB-AA9C-D24D-A208-27D75BD8AF6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4180" yWindow="2460" windowWidth="27900" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="37320" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="143">
   <si>
     <t>TABLE_NAME</t>
   </si>
@@ -296,13 +296,270 @@
   </si>
   <si>
     <t>Custom function that simulates a foreign key relationship, referencing PERSON_NUMBER values from the S_EMPLOYEE table.</t>
+  </si>
+  <si>
+    <t>Custom function assigns a default value of 31/12/4712 to indicate active status (based on STAT2 = 3). (Pending clarification on handling inactive employees.)</t>
+  </si>
+  <si>
+    <t>Custom function randomly generates a fake start date within a predefined date range.</t>
+  </si>
+  <si>
+    <t>Custom function generates action types with approximate distribution: 80% HIRE (`10`), 18% REHIRE (`86`), and 2% blank values (distribution is configurable).</t>
+  </si>
+  <si>
+    <t>Custom function derives action reasons based on `MASSN`: assigns `01` (NEWHIRE) if `MASSN` = `10`, `12` (REHIRE_WKR) if `MASSN` = `86`, and `02` (LOCCHANGE) if `MASSN` is blank. (This column is directly related to `MASSN`.)</t>
+  </si>
+  <si>
+    <t>default('3')</t>
+  </si>
+  <si>
+    <t>foreign_key(S_EMPLOYEE.PERNR)</t>
+  </si>
+  <si>
+    <t>get_reason_for_action()</t>
+  </si>
+  <si>
+    <t>get_start_date()</t>
+  </si>
+  <si>
+    <t>get_end_date()</t>
+  </si>
+  <si>
+    <t>According to Vendor Mapping: Use default '3'</t>
+  </si>
+  <si>
+    <t>Custom function reads the ENDDA value from S_PA0000 and assigns it to this column to maintain consistency between related records.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Custom function reads the BEGDA value from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>S_PA0000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and assigns it to this column to maintain consistency between related records.</t>
+    </r>
+  </si>
+  <si>
+    <t>According to Vendor Mapping: Use default '1'</t>
+  </si>
+  <si>
+    <t>According to Vendor Mapping: Use default 'Y1'</t>
+  </si>
+  <si>
+    <t>Custom function assigns a random company code ('1710' or '2910') based on mapping rules. (Note: Only '1710' exists in the company code-dependent texts and sample data; clarification needed.)</t>
+  </si>
+  <si>
+    <t>Custom function that assigns a Personnel_Area (WERKS) based on the company code (BUKRS), following the mapping rules.</t>
+  </si>
+  <si>
+    <t>Same value as the BUKRS (Company Code), based on the mapping rules.</t>
+  </si>
+  <si>
+    <t>Custom function assigns 1710 for USA and 2910 for CANADA, following the mapping defined in the Employee_KDS_Status tab.</t>
+  </si>
+  <si>
+    <t>There's missing information in the mapping for this field. Pending clarification on mapping rules for 'KOSTL'.</t>
+  </si>
+  <si>
+    <t>According to Vendor Mapping: Use default 'A000'</t>
+  </si>
+  <si>
+    <t>According to vendor mapping: use default P. (Note: Need confirmation on this.)</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>Custom function that assigns default organizational unit codes: 50000000 for US and 50000001 for Canada, as per the mapping rules.</t>
+  </si>
+  <si>
+    <t>Pending clarification. Currently, there are no mapping rules defined, and the employee sample data shows blank values for this field.</t>
+  </si>
+  <si>
+    <t>Custom function assigns US if the company code is US, or randomly assigns FR or US if the company code is CANADA.</t>
+  </si>
+  <si>
+    <t>Custom function generates second names with an approximate distribution between actual names and blank values (distribution is configurable).</t>
+  </si>
+  <si>
+    <t>Custom function generates titles with an approximate distribution between actual names and blank values (distribution is configurable).</t>
+  </si>
+  <si>
+    <t>Faker function generates random first names.</t>
+  </si>
+  <si>
+    <t>A Faker function generates random last names.</t>
+  </si>
+  <si>
+    <t>Custom function that simulates a foreign key relationship, referencing Object Type values from the S_PA0001 table.</t>
+  </si>
+  <si>
+    <t>Custom function generates an object type ID as indicated in the mapping (SAP will provide the final value).</t>
+  </si>
+  <si>
+    <t>According to Vendor Mapping: Use default '10'</t>
+  </si>
+  <si>
+    <t>According to Vendor Mapping: Use default '100'</t>
+  </si>
+  <si>
+    <t>Custom function assigns S (Position) as the related object type because positions are required for persons (P) to report to in the hierarchy.</t>
+  </si>
+  <si>
+    <t>Custom function generates fake IDs to simulate the related object, as the mapping rules do not directly provide the expected values. (Need to confirmation on this)</t>
+  </si>
+  <si>
+    <t>Custom function assigns A as the default value, since S/4HANA uses A or B. Although the mapping description references A002 – Reports to, clarification is needed to confirm this behavior.</t>
+  </si>
+  <si>
+    <t>Custom function assigns A002 – Reports to as the default relationship type, as specified in the mapping description for Mock 1 manager assignments.</t>
+  </si>
+  <si>
+    <t>A custom function will assign “9999-12-31” as the default End Date to indicate an open-ended validity period.</t>
+  </si>
+  <si>
+    <t>A custom function will set the Start Date using the employee’s hire date from IT0000 to keep dates consistent across records.</t>
+  </si>
+  <si>
+    <t>A custom function will assign the subtype based on the selected infotype: “01” for IT0006, “0010” for IT0105 email, and “CELL” for IT0105 phone number. Other infotypes will leave subtype blank unless specified.</t>
+  </si>
+  <si>
+    <t>A custom function will assign one of the required infotypes (IT0000, IT0001, IT0002, IT0006, IT0105) randomly or in sequence to extend employee records to all relevant infotypes.</t>
+  </si>
+  <si>
+    <t>Custom function randomly assigns “0010” (email), “CELL” (mobile), or “FAX” (fax) to simulate different communication types.</t>
+  </si>
+  <si>
+    <t>Custom function sets “EMAIL”, “PHONE”, or “FAX” based on the value of SUBTY.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Custom function uses </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>STRAS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>PSTLZ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to look up predefined addresses in a JSON file and returns the corresponding value for this column.</t>
+    </r>
+  </si>
+  <si>
+    <t>Custom function selects a random street address from a predefined list of addresses in a JSON file.</t>
+  </si>
+  <si>
+    <t>Custom function assigns an address record type based on the selected SUBTY. (1 = Permanent Residence, 2 = Temporary Residence, 3 = Emergency Address, 4 = Address for Notifications)</t>
+  </si>
+  <si>
+    <t>Custom function that randomly selects a SUBTY ID from a predfined list of values. (1 = Permanent Residence, 2 = Temporary Residence, 3 = Emergency Address, 4 = Address for Notifications)</t>
+  </si>
+  <si>
+    <t>Custom function randomly assigns an email type, selecting between personal and work.</t>
+  </si>
+  <si>
+    <t>Custom function generates a fake email address. If COM01 is personal, it creates a random personal email (e.g., Gmail, Yahoo). If COM01 is work, it generates a fake corporate email using the Xerox domain.</t>
+  </si>
+  <si>
+    <t>Custom function randomly assigns a personal phone number to simulate employee contact details.</t>
+  </si>
+  <si>
+    <t>Custom function randomly assigns a work phone number, simulating corporate contact information.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">These columns hold additional communication types and values. Pending confirmation if they need synthetic data or if </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>COM01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>COM02</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> are enough.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -329,13 +586,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -350,11 +627,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -576,13 +858,14 @@
   <dimension ref="A1:F82"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="131" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="6" max="6" width="102.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.5" customWidth="1"/>
+    <col min="6" max="6" width="185.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -622,7 +905,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -635,11 +918,14 @@
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="F3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -652,8 +938,14 @@
       <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -666,8 +958,14 @@
       <c r="D5" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -680,8 +978,14 @@
       <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -694,8 +998,14 @@
       <c r="D7" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -707,6 +1017,12 @@
       </c>
       <c r="D8" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
@@ -722,6 +1038,9 @@
       <c r="D9" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="F9" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
@@ -736,8 +1055,11 @@
       <c r="D10" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F10" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -749,6 +1071,9 @@
       </c>
       <c r="D11" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
@@ -764,6 +1089,9 @@
       <c r="D12" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="F12" s="1" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
@@ -778,6 +1106,9 @@
       <c r="D13" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="F13" s="1" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
@@ -792,6 +1123,9 @@
       <c r="D14" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="F14" s="1" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
@@ -806,6 +1140,9 @@
       <c r="D15" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="F15" s="1" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
@@ -820,8 +1157,11 @@
       <c r="D16" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F16" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -834,8 +1174,11 @@
       <c r="D17" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F17" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -848,8 +1191,11 @@
       <c r="D18" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F18" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -862,8 +1208,11 @@
       <c r="D19" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F19" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
@@ -876,8 +1225,11 @@
       <c r="D20" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F20" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
@@ -890,8 +1242,11 @@
       <c r="D21" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F21" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>17</v>
       </c>
@@ -904,8 +1259,11 @@
       <c r="D22" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F22" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
@@ -918,8 +1276,11 @@
       <c r="D23" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>31</v>
       </c>
@@ -932,8 +1293,11 @@
       <c r="D24" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F24" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
@@ -946,8 +1310,11 @@
       <c r="D25" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F25" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
@@ -960,8 +1327,11 @@
       <c r="D26" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F26" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>31</v>
       </c>
@@ -974,8 +1344,11 @@
       <c r="D27" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F27" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
@@ -988,8 +1361,11 @@
       <c r="D28" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F28" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
@@ -1002,8 +1378,11 @@
       <c r="D29" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F29" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>31</v>
       </c>
@@ -1016,8 +1395,11 @@
       <c r="D30" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F30" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
@@ -1030,8 +1412,11 @@
       <c r="D31" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F31" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -1044,8 +1429,11 @@
       <c r="D32" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F32" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>41</v>
       </c>
@@ -1058,8 +1446,11 @@
       <c r="D33" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F33" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>41</v>
       </c>
@@ -1072,12 +1463,15 @@
       <c r="D34" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F34" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -1086,8 +1480,11 @@
       <c r="D35" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F35" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
@@ -1100,8 +1497,11 @@
       <c r="D36" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F36" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>41</v>
       </c>
@@ -1114,8 +1514,11 @@
       <c r="D37" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F37" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>41</v>
       </c>
@@ -1128,8 +1531,11 @@
       <c r="D38" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F38" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>41</v>
       </c>
@@ -1142,8 +1548,11 @@
       <c r="D39" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F39" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>41</v>
       </c>
@@ -1156,8 +1565,11 @@
       <c r="D40" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F40" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>41</v>
       </c>
@@ -1170,8 +1582,11 @@
       <c r="D41" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F41" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
@@ -1184,8 +1599,11 @@
       <c r="D42" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F42" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
@@ -1198,8 +1616,11 @@
       <c r="D43" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F43" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>41</v>
       </c>
@@ -1212,8 +1633,11 @@
       <c r="D44" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F44" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>41</v>
       </c>
@@ -1226,8 +1650,11 @@
       <c r="D45" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F45" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>41</v>
       </c>
@@ -1240,8 +1667,11 @@
       <c r="D46" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F46" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>41</v>
       </c>
@@ -1254,8 +1684,11 @@
       <c r="D47" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F47" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1268,8 +1701,11 @@
       <c r="D48" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F48" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>41</v>
       </c>
@@ -1282,8 +1718,11 @@
       <c r="D49" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F49" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>41</v>
       </c>
@@ -1296,8 +1735,11 @@
       <c r="D50" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" ht="13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="F50" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="16" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>41</v>
       </c>
@@ -1310,12 +1752,15 @@
       <c r="D51" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" ht="13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="F51" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -1324,8 +1769,11 @@
       <c r="D52" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" ht="13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="F52" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
         <v>41</v>
       </c>
@@ -1338,8 +1786,11 @@
       <c r="D53" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" ht="13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="F53" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
         <v>41</v>
       </c>
@@ -1352,8 +1803,11 @@
       <c r="D54" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" ht="13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="F54" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
         <v>41</v>
       </c>
@@ -1366,8 +1820,11 @@
       <c r="D55" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" ht="13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="F55" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="16" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>41</v>
       </c>
@@ -1380,8 +1837,11 @@
       <c r="D56" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" ht="13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="F56" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="16" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>41</v>
       </c>
@@ -1394,8 +1854,11 @@
       <c r="D57" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" ht="13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="F57" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="16" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>41</v>
       </c>
@@ -1408,8 +1871,11 @@
       <c r="D58" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" ht="13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="F58" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="16" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>41</v>
       </c>
@@ -1422,8 +1888,11 @@
       <c r="D59" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" ht="13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="F59" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="16" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>41</v>
       </c>
@@ -1436,8 +1905,11 @@
       <c r="D60" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" ht="13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="F60" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="16" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>41</v>
       </c>
@@ -1450,8 +1922,11 @@
       <c r="D61" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" ht="13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="F61" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="16" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>41</v>
       </c>
@@ -1464,8 +1939,11 @@
       <c r="D62" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" ht="13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="F62" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="16" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>41</v>
       </c>
@@ -1478,8 +1956,11 @@
       <c r="D63" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" ht="13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="F63" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
         <v>73</v>
       </c>
@@ -1492,8 +1973,11 @@
       <c r="D64" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" ht="13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="F64" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
         <v>73</v>
       </c>
@@ -1506,8 +1990,11 @@
       <c r="D65" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" ht="13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="F65" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
         <v>73</v>
       </c>
@@ -1520,8 +2007,11 @@
       <c r="D66" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" ht="13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="F66" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>73</v>
       </c>
@@ -1534,8 +2024,11 @@
       <c r="D67" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" ht="13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="F67" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
         <v>73</v>
       </c>
@@ -1548,8 +2041,11 @@
       <c r="D68" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" ht="13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="F68" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
         <v>75</v>
       </c>
@@ -1562,8 +2058,11 @@
       <c r="D69" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" ht="13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="F69" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
         <v>75</v>
       </c>
@@ -1576,8 +2075,11 @@
       <c r="D70" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" ht="13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="F70" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
         <v>75</v>
       </c>
@@ -1590,8 +2092,11 @@
       <c r="D71" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" ht="13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="F71" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="14" hidden="1" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
         <v>75</v>
       </c>
@@ -1604,8 +2109,11 @@
       <c r="D72" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" ht="13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="F72" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
         <v>77</v>
       </c>
@@ -1618,8 +2126,11 @@
       <c r="D73" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" ht="13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="F73" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
         <v>77</v>
       </c>
@@ -1632,8 +2143,11 @@
       <c r="D74" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" ht="13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="F74" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
         <v>77</v>
       </c>
@@ -1646,8 +2160,11 @@
       <c r="D75" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" ht="13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="F75" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>77</v>
       </c>
@@ -1660,8 +2177,11 @@
       <c r="D76" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" ht="13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="F76" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
         <v>77</v>
       </c>
@@ -1674,8 +2194,11 @@
       <c r="D77" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" ht="13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="F77" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
         <v>77</v>
       </c>
@@ -1688,8 +2211,11 @@
       <c r="D78" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" ht="13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="F78" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
         <v>77</v>
       </c>
@@ -1702,8 +2228,11 @@
       <c r="D79" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" ht="13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="F79" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
         <v>77</v>
       </c>
@@ -1716,8 +2245,11 @@
       <c r="D80" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" ht="13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="F80" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
         <v>77</v>
       </c>
@@ -1730,8 +2262,11 @@
       <c r="D81" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" ht="13" hidden="1" x14ac:dyDescent="0.15">
+      <c r="F81" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="13" hidden="1" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
         <v>77</v>
       </c>
@@ -1743,16 +2278,20 @@
       </c>
       <c r="D82" s="1" t="s">
         <v>87</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F82" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters>
-        <filter val="S_PA0000"/>
+        <filter val="S_PA0006"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>